--- a/recipes.xlsx
+++ b/recipes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erenx\OneDrive\Masaüstü\RecipeApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erenx\OneDrive\Masaüstü\RecipeApp\ProjectBuilds\Build1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EAE2DD-CAB8-4435-B36B-130535DA494A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C79FC8-B4F0-40E7-9ED4-6A300CCAC1F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5670" yWindow="17775" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Tost</t>
   </si>
@@ -39,16 +39,25 @@
     <t>Recipe</t>
   </si>
   <si>
-    <t>Ingridients</t>
-  </si>
-  <si>
     <t>howTo</t>
   </si>
   <si>
-    <t>Ekmek,Kaşar,Sucuk</t>
-  </si>
-  <si>
-    <t>Un,Su,Kıyma</t>
+    <t>2,300,100</t>
+  </si>
+  <si>
+    <t>1,1,1</t>
+  </si>
+  <si>
+    <t>EKMEK,KAŞAR,SUCUK</t>
+  </si>
+  <si>
+    <t>UN,SU,KIYMA</t>
+  </si>
+  <si>
+    <t>Ingredients</t>
+  </si>
+  <si>
+    <t>IngredientAmounts</t>
   </si>
 </sst>
 </file>
@@ -369,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,40 +389,50 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="54.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="28.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="41.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/recipes.xlsx
+++ b/recipes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erenx\OneDrive\Masaüstü\RecipeApp\ProjectBuilds\Build1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erenx\OneDrive\Masaüstü\RecipeAppFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C79FC8-B4F0-40E7-9ED4-6A300CCAC1F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A33ECA-8C2B-4BA9-8734-67AE9DC5BD59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5670" yWindow="17775" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Tost</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>UN,SU,KIYMA</t>
+  </si>
+  <si>
+    <t>Tost2</t>
+  </si>
+  <si>
+    <t>EKMEK,KAŞAR,SUCUK,KIYMA</t>
+  </si>
+  <si>
+    <t>balslasdllasd</t>
+  </si>
+  <si>
+    <t>2,300,50,1</t>
   </si>
   <si>
     <t>Ingredients</t>
@@ -378,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,13 +410,13 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -433,6 +445,20 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
